--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N2">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q2">
-        <v>81.8976092441201</v>
+        <v>0.6610260353491112</v>
       </c>
       <c r="R2">
-        <v>737.078483197081</v>
+        <v>5.949234318142</v>
       </c>
       <c r="S2">
-        <v>0.04978230336255234</v>
+        <v>0.0004804194181934178</v>
       </c>
       <c r="T2">
-        <v>0.04978230336255234</v>
+        <v>0.0004804194181934178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P3">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q3">
-        <v>287.2944778509365</v>
+        <v>3.515600361497555</v>
       </c>
       <c r="R3">
-        <v>2585.650300658428</v>
+        <v>31.640403253478</v>
       </c>
       <c r="S3">
-        <v>0.1746349006126602</v>
+        <v>0.002555062266767184</v>
       </c>
       <c r="T3">
-        <v>0.1746349006126602</v>
+        <v>0.002555062266767185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N4">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q4">
-        <v>109.530968716146</v>
+        <v>1.935931112102222</v>
       </c>
       <c r="R4">
-        <v>985.778718445314</v>
+        <v>17.42338000892</v>
       </c>
       <c r="S4">
-        <v>0.06657952487926734</v>
+        <v>0.001406992839620135</v>
       </c>
       <c r="T4">
-        <v>0.06657952487926734</v>
+        <v>0.001406992839620135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N5">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q5">
-        <v>167.5141152580226</v>
+        <v>110.4909040158226</v>
       </c>
       <c r="R5">
-        <v>1507.627037322203</v>
+        <v>994.4181361424031</v>
       </c>
       <c r="S5">
-        <v>0.1018251763421673</v>
+        <v>0.08030239806653271</v>
       </c>
       <c r="T5">
-        <v>0.1018251763421673</v>
+        <v>0.08030239806653272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P6">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q6">
         <v>587.6347395228807</v>
@@ -818,10 +818,10 @@
         <v>5288.712655705926</v>
       </c>
       <c r="S6">
-        <v>0.3571998149799809</v>
+        <v>0.4270802125406823</v>
       </c>
       <c r="T6">
-        <v>0.3571998149799808</v>
+        <v>0.4270802125406824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N7">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q7">
-        <v>224.035640199798</v>
+        <v>323.5920633225311</v>
       </c>
       <c r="R7">
-        <v>2016.320761798182</v>
+        <v>2912.32856990278</v>
       </c>
       <c r="S7">
-        <v>0.1361823660957564</v>
+        <v>0.2351797092399154</v>
       </c>
       <c r="T7">
-        <v>0.1361823660957564</v>
+        <v>0.2351797092399155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N8">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q8">
-        <v>32.02652247236212</v>
+        <v>37.64487940526433</v>
       </c>
       <c r="R8">
-        <v>288.238702251259</v>
+        <v>338.803914647379</v>
       </c>
       <c r="S8">
-        <v>0.01946765079080985</v>
+        <v>0.02735948373393034</v>
       </c>
       <c r="T8">
-        <v>0.01946765079080984</v>
+        <v>0.02735948373393034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>209.032433</v>
       </c>
       <c r="O9">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P9">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q9">
-        <v>112.3481275705146</v>
+        <v>200.2104978751456</v>
       </c>
       <c r="R9">
-        <v>1011.133148134631</v>
+        <v>1801.894480876311</v>
       </c>
       <c r="S9">
-        <v>0.0682919638381463</v>
+        <v>0.1455086573928866</v>
       </c>
       <c r="T9">
-        <v>0.06829196383814627</v>
+        <v>0.1455086573928867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N10">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q10">
-        <v>42.83270370629401</v>
+        <v>110.2496563747267</v>
       </c>
       <c r="R10">
-        <v>385.4943333566461</v>
+        <v>992.24690737254</v>
       </c>
       <c r="S10">
-        <v>0.02603629909865945</v>
+        <v>0.08012706450147181</v>
       </c>
       <c r="T10">
-        <v>0.02603629909865944</v>
+        <v>0.08012706450147183</v>
       </c>
     </row>
   </sheetData>
